--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Parker.Spring.033121.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Parker.Spring.033121.xlsx_with_dialog_acts.xlsx
@@ -559,12 +559,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -643,12 +643,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -983,12 +983,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1487,12 +1487,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2873,12 +2873,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2915,12 +2915,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3675,12 +3675,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3717,12 +3717,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3759,12 +3759,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3927,12 +3927,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4011,12 +4011,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4515,12 +4515,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4557,12 +4557,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4599,12 +4599,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4851,12 +4851,12 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5061,12 +5061,12 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5103,12 +5103,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5649,12 +5649,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5943,12 +5943,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6279,12 +6279,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6321,12 +6321,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7161,12 +7161,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7203,12 +7203,12 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7413,12 +7413,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7791,12 +7791,12 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8169,12 +8169,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8509,12 +8509,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8677,12 +8677,12 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9055,12 +9055,12 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10029,12 +10029,12 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10071,12 +10071,12 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10155,12 +10155,12 @@
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10995,12 +10995,12 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11163,12 +11163,12 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11335,12 +11335,12 @@
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11927,12 +11927,12 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12729,12 +12729,12 @@
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12897,12 +12897,12 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13149,12 +13149,12 @@
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13317,12 +13317,12 @@
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13493,12 +13493,12 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13619,12 +13619,12 @@
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13703,12 +13703,12 @@
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14669,12 +14669,12 @@
       <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15051,12 +15051,12 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15093,12 +15093,12 @@
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15597,12 +15597,12 @@
       <c r="H360" t="inlineStr"/>
       <c r="I360" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16143,12 +16143,12 @@
       <c r="H373" t="inlineStr"/>
       <c r="I373" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16311,12 +16311,12 @@
       <c r="H377" t="inlineStr"/>
       <c r="I377" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16691,12 +16691,12 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16731,12 +16731,12 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16931,12 +16931,12 @@
       <c r="H392" t="inlineStr"/>
       <c r="I392" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17211,12 +17211,12 @@
       <c r="H399" t="inlineStr"/>
       <c r="I399" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17411,12 +17411,12 @@
       <c r="H404" t="inlineStr"/>
       <c r="I404" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17491,12 +17491,12 @@
       <c r="H406" t="inlineStr"/>
       <c r="I406" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17571,12 +17571,12 @@
       <c r="H408" t="inlineStr"/>
       <c r="I408" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17651,12 +17651,12 @@
       <c r="H410" t="inlineStr"/>
       <c r="I410" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17771,12 +17771,12 @@
       <c r="H413" t="inlineStr"/>
       <c r="I413" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18215,12 +18215,12 @@
       <c r="H424" t="inlineStr"/>
       <c r="I424" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18899,12 +18899,12 @@
       <c r="H441" t="inlineStr"/>
       <c r="I441" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20139,12 +20139,12 @@
       <c r="H472" t="inlineStr"/>
       <c r="I472" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20583,12 +20583,12 @@
       <c r="H483" t="inlineStr"/>
       <c r="I483" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20663,12 +20663,12 @@
       <c r="H485" t="inlineStr"/>
       <c r="I485" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20907,12 +20907,12 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20947,12 +20947,12 @@
       <c r="H492" t="inlineStr"/>
       <c r="I492" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21835,12 +21835,12 @@
       <c r="H514" t="inlineStr"/>
       <c r="I514" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22395,12 +22395,12 @@
       <c r="H528" t="inlineStr"/>
       <c r="I528" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22439,12 +22439,12 @@
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22599,12 +22599,12 @@
       <c r="H533" t="inlineStr"/>
       <c r="I533" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -22723,12 +22723,12 @@
       <c r="H536" t="inlineStr"/>
       <c r="I536" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23295,12 +23295,12 @@
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J550" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23543,12 +23543,12 @@
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23623,12 +23623,12 @@
       <c r="H558" t="inlineStr"/>
       <c r="I558" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J558" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23863,12 +23863,12 @@
       <c r="H564" t="inlineStr"/>
       <c r="I564" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23903,12 +23903,12 @@
       <c r="H565" t="inlineStr"/>
       <c r="I565" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J565" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24103,12 +24103,12 @@
       <c r="H570" t="inlineStr"/>
       <c r="I570" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J570" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24463,12 +24463,12 @@
       <c r="H579" t="inlineStr"/>
       <c r="I579" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24583,12 +24583,12 @@
       <c r="H582" t="inlineStr"/>
       <c r="I582" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24743,12 +24743,12 @@
       <c r="H586" t="inlineStr"/>
       <c r="I586" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25023,12 +25023,12 @@
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25063,12 +25063,12 @@
       <c r="H594" t="inlineStr"/>
       <c r="I594" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J594" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25227,12 +25227,12 @@
       <c r="H598" t="inlineStr"/>
       <c r="I598" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25347,12 +25347,12 @@
       <c r="H601" t="inlineStr"/>
       <c r="I601" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25471,12 +25471,12 @@
       <c r="H604" t="inlineStr"/>
       <c r="I604" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25991,12 +25991,12 @@
       <c r="H617" t="inlineStr"/>
       <c r="I617" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J617" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26431,12 +26431,12 @@
       <c r="H628" t="inlineStr"/>
       <c r="I628" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J628" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -26555,12 +26555,12 @@
       <c r="H631" t="inlineStr"/>
       <c r="I631" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J631" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27315,12 +27315,12 @@
       <c r="H650" t="inlineStr"/>
       <c r="I650" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J650" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27555,12 +27555,12 @@
       <c r="H656" t="inlineStr"/>
       <c r="I656" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -27719,12 +27719,12 @@
       <c r="H660" t="inlineStr"/>
       <c r="I660" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -28203,12 +28203,12 @@
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J672" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29163,12 +29163,12 @@
       </c>
       <c r="I696" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J696" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29203,12 +29203,12 @@
       <c r="H697" t="inlineStr"/>
       <c r="I697" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J697" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -29247,12 +29247,12 @@
       </c>
       <c r="I698" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J698" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30695,12 +30695,12 @@
       <c r="H734" t="inlineStr"/>
       <c r="I734" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J734" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31179,12 +31179,12 @@
       <c r="H746" t="inlineStr"/>
       <c r="I746" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J746" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32019,12 +32019,12 @@
       <c r="H767" t="inlineStr"/>
       <c r="I767" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J767" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -32139,12 +32139,12 @@
       </c>
       <c r="I770" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J770" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -32303,12 +32303,12 @@
       <c r="H774" t="inlineStr"/>
       <c r="I774" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J774" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -32503,12 +32503,12 @@
       </c>
       <c r="I779" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J779" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32703,12 +32703,12 @@
       <c r="H784" t="inlineStr"/>
       <c r="I784" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J784" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -32823,12 +32823,12 @@
       <c r="H787" t="inlineStr"/>
       <c r="I787" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J787" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -32903,12 +32903,12 @@
       <c r="H789" t="inlineStr"/>
       <c r="I789" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J789" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -33383,12 +33383,12 @@
       <c r="H801" t="inlineStr"/>
       <c r="I801" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J801" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33663,12 +33663,12 @@
       <c r="H808" t="inlineStr"/>
       <c r="I808" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J808" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -33863,12 +33863,12 @@
       <c r="H813" t="inlineStr"/>
       <c r="I813" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J813" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -34107,12 +34107,12 @@
       <c r="H819" t="inlineStr"/>
       <c r="I819" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J819" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34745,12 +34745,12 @@
       <c r="H835" t="inlineStr"/>
       <c r="I835" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J835" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -34945,12 +34945,12 @@
       <c r="H840" t="inlineStr"/>
       <c r="I840" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J840" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -35709,12 +35709,12 @@
       <c r="H859" t="inlineStr"/>
       <c r="I859" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J859" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -35749,12 +35749,12 @@
       <c r="H860" t="inlineStr"/>
       <c r="I860" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J860" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -36909,12 +36909,12 @@
       <c r="H889" t="inlineStr"/>
       <c r="I889" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J889" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -37509,12 +37509,12 @@
       <c r="H904" t="inlineStr"/>
       <c r="I904" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J904" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -37629,12 +37629,12 @@
       <c r="H907" t="inlineStr"/>
       <c r="I907" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J907" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -38633,12 +38633,12 @@
       <c r="H932" t="inlineStr"/>
       <c r="I932" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J932" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -39161,12 +39161,12 @@
       <c r="H945" t="inlineStr"/>
       <c r="I945" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J945" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39201,12 +39201,12 @@
       <c r="H946" t="inlineStr"/>
       <c r="I946" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J946" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -39441,12 +39441,12 @@
       <c r="H952" t="inlineStr"/>
       <c r="I952" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J952" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -39721,12 +39721,12 @@
       <c r="H959" t="inlineStr"/>
       <c r="I959" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J959" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -40085,12 +40085,12 @@
       </c>
       <c r="I968" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J968" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -41205,12 +41205,12 @@
       <c r="H996" t="inlineStr"/>
       <c r="I996" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J996" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -41331,12 +41331,12 @@
       </c>
       <c r="I999" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J999" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
